--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dratw\Documents\codes\fakturownia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E802705-FA53-49F2-90A1-E34A1441371B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEF4462-52FB-4D5D-BA70-B7715E875247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>sell_date</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>stockxde</t>
-  </si>
-  <si>
-    <t>hypeboost</t>
   </si>
   <si>
     <t>47133787-47033546</t>
@@ -399,7 +396,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A3" sqref="A3:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,264 +450,44 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>44950</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>250</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>44950</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>250</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>44950</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>250</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>44951</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>250</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>44950</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>250</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>44950</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>250</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>44950</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>250</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>44950</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>250</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>9</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>44950</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>250</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>44950</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>250</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>44951</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>250</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>9</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dratw\Documents\codes\fakturownia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEF4462-52FB-4D5D-BA70-B7715E875247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E699717-01AF-4EEF-8F49-B0C90E820D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="77">
   <si>
     <t>sell_date</t>
   </si>
@@ -50,12 +53,6 @@
     <t>total_price_gross</t>
   </si>
   <si>
-    <t>asss</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
@@ -65,13 +62,214 @@
     <t>tracking</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>stockxde</t>
-  </si>
-  <si>
     <t>47133787-47033546</t>
+  </si>
+  <si>
+    <t>adidas Samba Black White Gum</t>
+  </si>
+  <si>
+    <t>StockXde</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>46583697-46483456</t>
+  </si>
+  <si>
+    <t>1Z175Y409143453453</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Light Iron Ore (W)</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Grey Fog</t>
+  </si>
+  <si>
+    <t>adidas Yeezy Boost 350 V2 Bone</t>
+  </si>
+  <si>
+    <t>Jordan 1 Mid Pinksicle Safety Orange (GS)</t>
+  </si>
+  <si>
+    <t>Jordan 1 Retro Low Golf Wolf Grey</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Retro White Black Panda (2021) (GS)</t>
+  </si>
+  <si>
+    <t>UGG Classic Ultra Mini Platform Chestnut (W)</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Triple White (2021) (W)</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Safari Mix (W)</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>HypeBoost</t>
+  </si>
+  <si>
+    <t>Klekt</t>
+  </si>
+  <si>
+    <t>Restocks</t>
+  </si>
+  <si>
+    <t>Sneakit</t>
+  </si>
+  <si>
+    <t>WETHENEW</t>
+  </si>
+  <si>
+    <t>9W</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>5.5Y</t>
+  </si>
+  <si>
+    <t>12W</t>
+  </si>
+  <si>
+    <t>7.5W</t>
+  </si>
+  <si>
+    <t>7Y</t>
+  </si>
+  <si>
+    <t>7W</t>
+  </si>
+  <si>
+    <t>6Y</t>
+  </si>
+  <si>
+    <t>8W</t>
+  </si>
+  <si>
+    <t>4.5Y</t>
+  </si>
+  <si>
+    <t>6.5Y</t>
+  </si>
+  <si>
+    <t>6W</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>8.5W</t>
+  </si>
+  <si>
+    <t>1Z39R6879125326546</t>
+  </si>
+  <si>
+    <t>1Z39R6879110991024</t>
+  </si>
+  <si>
+    <t>1Z39R6879103644118</t>
+  </si>
+  <si>
+    <t>1ZFA40029111386397</t>
+  </si>
+  <si>
+    <t>1Z36Y41A9199945962</t>
+  </si>
+  <si>
+    <t>1Z36Y41A9197082782</t>
+  </si>
+  <si>
+    <t>rhyyj2f</t>
+  </si>
+  <si>
+    <t>mx7fwpz</t>
+  </si>
+  <si>
+    <t>cj5mtmh5 - 1014236</t>
+  </si>
+  <si>
+    <t>1ZRF66299121437276</t>
+  </si>
+  <si>
+    <t>1ZRF66299124821881</t>
+  </si>
+  <si>
+    <t>ky42fmU</t>
+  </si>
+  <si>
+    <t>1Z3241WW9199358417</t>
+  </si>
+  <si>
+    <t>8XYPZYK</t>
+  </si>
+  <si>
+    <t>1Z3241WW9196764411</t>
+  </si>
+  <si>
+    <t>YCTTB3E</t>
+  </si>
+  <si>
+    <t>1Z3241WW9194216105</t>
+  </si>
+  <si>
+    <t>46959189-46858948</t>
+  </si>
+  <si>
+    <t>1Z175Y409143641857</t>
+  </si>
+  <si>
+    <t>46647627-46547386</t>
+  </si>
+  <si>
+    <t>46925015-46824774</t>
+  </si>
+  <si>
+    <t>46926180-46825939</t>
+  </si>
+  <si>
+    <t>46921209-46820968</t>
+  </si>
+  <si>
+    <t>1Z175Y409143583358</t>
+  </si>
+  <si>
+    <t>46680831-46580590</t>
+  </si>
+  <si>
+    <t>46899707-46799466</t>
+  </si>
+  <si>
+    <t>46649504-46549263</t>
+  </si>
+  <si>
+    <t>47006794-46906553</t>
+  </si>
+  <si>
+    <t>46855732-46755491</t>
+  </si>
+  <si>
+    <t>1Z175Y409143747887</t>
+  </si>
+  <si>
+    <t>47053658-46953417</t>
+  </si>
+  <si>
+    <t>47051967-46951726</t>
   </si>
 </sst>
 </file>
@@ -110,9 +308,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -393,21 +592,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -424,70 +623,911 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>44950</v>
+        <v>44931</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>83.19</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>250</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44932</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>128.07</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3">
+        <v>914167246</v>
+      </c>
+      <c r="G3">
+        <v>5112429254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44932</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>172.01</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4">
+        <v>218507366</v>
+      </c>
+      <c r="G4">
+        <v>1217268651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44932</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>139.5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5">
+        <v>243536604</v>
+      </c>
+      <c r="G5">
+        <v>1558179070</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44932</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>132.47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6">
+        <v>422898067</v>
+      </c>
+      <c r="G6">
+        <v>1558173794</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44933</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>131.59</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>831079732</v>
+      </c>
+      <c r="G7">
+        <v>7236624010</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44933</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>120.36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>44933</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>186.74</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>44934</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>131.59</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>187301411</v>
+      </c>
+      <c r="G10">
+        <v>1305812830</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>44934</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>84.96</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>44935</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>233.52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12">
+        <v>901146771</v>
+      </c>
+      <c r="G12">
+        <v>6302758254</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>44937</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>154.61000000000001</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13">
+        <v>690863</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>44937</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>291.32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14">
+        <v>690890</v>
+      </c>
+      <c r="G14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44937</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>113</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44937</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>124</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44937</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17">
+        <v>257</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44938</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>154.61000000000001</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18">
+        <v>690864</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44938</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>133</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44939</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>248.2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20">
+        <v>3055881</v>
+      </c>
+      <c r="G20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44939</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>152.22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44940</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>211.51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44941</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>155.32</v>
+      </c>
+      <c r="E23">
+        <v>13</v>
+      </c>
+      <c r="F23">
+        <v>108421695</v>
+      </c>
+      <c r="G23">
+        <v>4516163175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44941</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>126.56</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44941</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>126.56</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44941</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>126.56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44942</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>108.86</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44943</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>108.74</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>794717243</v>
+      </c>
+      <c r="G28">
+        <v>2083557626</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44943</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29">
+        <v>119</v>
+      </c>
+      <c r="E29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44943</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>134</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44944</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>163.72999999999999</v>
+      </c>
+      <c r="E31">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44945</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <v>146.22</v>
+      </c>
+      <c r="E32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44945</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33">
+        <v>146.22</v>
+      </c>
+      <c r="E33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44947</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34">
+        <v>142.49</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>44949</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35">
+        <v>136.6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35">
+        <v>3096542</v>
+      </c>
+      <c r="G35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>44950</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36">
+        <v>130.71</v>
+      </c>
+      <c r="E36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36">
+        <v>285044372</v>
+      </c>
+      <c r="G36">
+        <v>2449742293</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>44950</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37">
+        <v>130.71</v>
+      </c>
+      <c r="E37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37">
+        <v>518555146</v>
+      </c>
+      <c r="G37">
+        <v>2449742470</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>44950</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38">
+        <v>130.71</v>
+      </c>
+      <c r="E38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38">
+        <v>260706703</v>
+      </c>
+      <c r="G38">
+        <v>5974878722</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>44950</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39">
+        <v>238.79</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="F39">
+        <v>944780700</v>
+      </c>
+      <c r="G39">
+        <v>4019718043</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>44950</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40">
+        <v>162.35</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>733321635</v>
+      </c>
+      <c r="G40">
+        <v>2449742654</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patryk_dratwa/Documents/codes/fakturownia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CE3F1C-4E6F-2E40-B9BD-11864A1D3EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDEED23-D836-824E-B1FE-D3D33C1B99C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>sell_date</t>
   </si>
@@ -62,49 +62,109 @@
     <t>tracking</t>
   </si>
   <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>adidas Campus 00s Grey White</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>stockxnl</t>
+  </si>
+  <si>
+    <t>Nike SB Dunk Low Adobe</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>adidas Campus 00s Core Black</t>
+  </si>
+  <si>
+    <t>Nike SB Dunk Low Orange Emerald Rise</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>adidas Samba Vegan Black Gum</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>54696281-54596040</t>
+  </si>
+  <si>
+    <t>1Z842FX49162090873</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low White Grey Navy Aqua Mini Swoosh</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>54716422-54616181</t>
+  </si>
+  <si>
+    <t>54744063-54643822</t>
+  </si>
+  <si>
+    <t>adidas Gazelle Bold Pink Glow (Women's)</t>
+  </si>
+  <si>
+    <t>8.5W</t>
+  </si>
+  <si>
+    <t>54765048-54664807</t>
+  </si>
+  <si>
     <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
   </si>
   <si>
-    <t>5.5W</t>
-  </si>
-  <si>
-    <t>adidas Handball Spezial Black Gum</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>49348491-49248250</t>
-  </si>
-  <si>
-    <t>1Z175Y409145275571</t>
-  </si>
-  <si>
-    <t>Nike Dunk Low SE Sand Drift (W)</t>
-  </si>
-  <si>
-    <t>1Z39R6879112263638</t>
-  </si>
-  <si>
-    <t>Nike Dunk Low Light Iron Ore (W)</t>
-  </si>
-  <si>
-    <t>11W</t>
-  </si>
-  <si>
-    <t>7.5W</t>
-  </si>
-  <si>
-    <t>49459038-49358797</t>
-  </si>
-  <si>
-    <t>stockxde</t>
-  </si>
-  <si>
-    <t>hypeboost</t>
-  </si>
-  <si>
-    <t>alias</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1Z842FX49162181220</t>
+  </si>
+  <si>
+    <t>54792372-54692131</t>
+  </si>
+  <si>
+    <t>adidas Yeezy Slide Slate Grey</t>
+  </si>
+  <si>
+    <t>54778747-54678506</t>
+  </si>
+  <si>
+    <t>54778139-54677898</t>
+  </si>
+  <si>
+    <t>adidas Samba ADV Black Gum</t>
+  </si>
+  <si>
+    <t>54791504-54691263</t>
+  </si>
+  <si>
+    <t>adidas Samba ADV Cardboard Black</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>54818711-54718470</t>
+  </si>
+  <si>
+    <t>54846686-54746445</t>
   </si>
 </sst>
 </file>
@@ -143,10 +203,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -428,17 +487,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
@@ -470,149 +529,348 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45010</v>
+        <v>45165</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2">
-        <v>101.78</v>
+        <v>104.85</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>45014</v>
+        <v>45166</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>172.28</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>900108</v>
+        <v>154.35</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>45014</v>
+        <v>45166</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>106.65</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>146.53</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <v>250603377</v>
-      </c>
-      <c r="G4">
-        <v>9879543295</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>45014</v>
+        <v>45166</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>114.89</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <v>553683034</v>
+      </c>
+      <c r="G5">
+        <v>1286102941</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>45167</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>104.85</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>45167</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>133.34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7">
+        <v>103302733</v>
+      </c>
+      <c r="G7">
+        <v>2107471505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>45167</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>120.17</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>628618158</v>
+      </c>
+      <c r="G8">
+        <v>8329466073</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>45168</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>116.99</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>45168</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>70.19</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>45168</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11">
+        <v>75.59</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>45168</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <v>83.69</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>45168</v>
+      </c>
+      <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="D5">
-        <v>148.68</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="E13" s="2"/>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13">
+        <v>98.19</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13">
+        <v>988583859</v>
+      </c>
+      <c r="G13">
+        <v>7461431541</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="E14" s="2"/>
+      <c r="A14" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>105.22</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14">
+        <v>509761240</v>
+      </c>
+      <c r="G14">
+        <v>2193945471</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="E15" s="2"/>
+      <c r="A15" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15">
+        <v>83.69</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
+      <c r="A16" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>105.29</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patryk_dratwa/Documents/codes/fakturownia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDEED23-D836-824E-B1FE-D3D33C1B99C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B662CBE7-6911-5A41-ADAB-B9B8ECFF6E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="119">
   <si>
     <t>sell_date</t>
   </si>
@@ -62,109 +62,340 @@
     <t>tracking</t>
   </si>
   <si>
+    <t>stockxnl</t>
+  </si>
+  <si>
     <t>alias</t>
   </si>
   <si>
+    <t>hypeboost</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Diffused Taupe (Women's)</t>
+  </si>
+  <si>
+    <t>adidas Campus 00s Dark Green Cloud White</t>
+  </si>
+  <si>
+    <t>wethenew</t>
+  </si>
+  <si>
+    <t>adidas Gazelle Scarlet Cloud White</t>
+  </si>
+  <si>
+    <t>jHz5DwZ</t>
+  </si>
+  <si>
+    <t>1Z3241WW9190738095</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>ZXTXUKDZ</t>
+  </si>
+  <si>
+    <t>New Balance 2002R Protection Pack Eclipse</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Next Nature Pale Coral (Women's)</t>
+  </si>
+  <si>
+    <t>7.5W</t>
+  </si>
+  <si>
+    <t>1Z842FX49168509222</t>
+  </si>
+  <si>
+    <t>59944916-59844675</t>
+  </si>
+  <si>
+    <t>60105475-60005234</t>
+  </si>
+  <si>
+    <t>1Z842FX49168602497</t>
+  </si>
+  <si>
+    <t>8W</t>
+  </si>
+  <si>
+    <t>60105347-60005106</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Summit White Midnight Navy</t>
+  </si>
+  <si>
+    <t>60105035-60004794</t>
+  </si>
+  <si>
+    <t>adidas Campus 00s Grey Gum (Kids)</t>
+  </si>
+  <si>
+    <t>4Y</t>
+  </si>
+  <si>
+    <t>60096178-59995937</t>
+  </si>
+  <si>
+    <t>adidas Campus 00s Black White Gum (Kids)</t>
+  </si>
+  <si>
+    <t>5.5Y</t>
+  </si>
+  <si>
+    <t>60096781-59996540</t>
+  </si>
+  <si>
+    <t>60095446-59995205</t>
+  </si>
+  <si>
+    <t>60096114-59995873</t>
+  </si>
+  <si>
+    <t>60095290-59995049</t>
+  </si>
+  <si>
+    <t>6Y</t>
+  </si>
+  <si>
+    <t>9W</t>
+  </si>
+  <si>
+    <t>60115501-60015260</t>
+  </si>
+  <si>
+    <t>60106734-60006493</t>
+  </si>
+  <si>
+    <t>1Z842FX49168602488</t>
+  </si>
+  <si>
+    <t>11.5</t>
+  </si>
+  <si>
+    <t>60108734-60008493</t>
+  </si>
+  <si>
+    <t>60131406-60031165</t>
+  </si>
+  <si>
+    <t>NswDZEx</t>
+  </si>
+  <si>
+    <t>1Z3241WW9192396059</t>
+  </si>
+  <si>
+    <t>UGG Funkette Slipper Chestnut (Women's)</t>
+  </si>
+  <si>
+    <t>7W</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>adidas Campus 00s Core Black</t>
+  </si>
+  <si>
+    <t>UQYbgWW</t>
+  </si>
+  <si>
+    <t>1Z3241WW9190999974</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>ASICS Gel-1130 Black Pure Silver</t>
+  </si>
+  <si>
+    <t>1Z842FX49168837752</t>
+  </si>
+  <si>
+    <t>60333209-60232968</t>
+  </si>
+  <si>
+    <t>60333303-60233062</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Chicago Split</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>60362820-60262579</t>
+  </si>
+  <si>
+    <t>60459759-60359518</t>
+  </si>
+  <si>
+    <t>1Z842FX49169032459</t>
+  </si>
+  <si>
+    <t>adidas Campus 00s Grey White</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>60462747-60362506</t>
+  </si>
+  <si>
+    <t>1Z39R6879131325740</t>
+  </si>
+  <si>
+    <t>60470161-60369920</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Polar Blue</t>
+  </si>
+  <si>
+    <t>60465607-60365366</t>
+  </si>
+  <si>
+    <t>60481119-60380878</t>
+  </si>
+  <si>
+    <t>60464269-60364028</t>
+  </si>
+  <si>
+    <t>60481619-60381378</t>
+  </si>
+  <si>
+    <t>60473836-60373595</t>
+  </si>
+  <si>
+    <t>60506320-60406079</t>
+  </si>
+  <si>
+    <t>60502029-60401788</t>
+  </si>
+  <si>
+    <t>1Z39R6879131829769</t>
+  </si>
+  <si>
+    <t>1Z39R6879136476757</t>
+  </si>
+  <si>
+    <t>adidas Campus 00s Semi Lucid Blue Cloud White</t>
+  </si>
+  <si>
+    <t>1Z39R6879118165153</t>
+  </si>
+  <si>
+    <t>1Z842FX49169121693</t>
+  </si>
+  <si>
+    <t>60544941-60444700</t>
+  </si>
+  <si>
+    <t>60543104-60442863</t>
+  </si>
+  <si>
+    <t>60543178-60442937</t>
+  </si>
+  <si>
+    <t>1Z3241WW9194164340</t>
+  </si>
+  <si>
+    <t>1Z3241WW9190168531</t>
+  </si>
+  <si>
+    <t>jr6LYpp</t>
+  </si>
+  <si>
+    <t>3FXWcbX</t>
+  </si>
+  <si>
+    <t>1Z39R6879103307447</t>
+  </si>
+  <si>
+    <t>Jordan 1 Low Fierce Pink (GS)</t>
+  </si>
+  <si>
+    <t>5Y</t>
+  </si>
+  <si>
+    <t>60566011-60465770</t>
+  </si>
+  <si>
+    <t>adidas Campus 00s Better Scarlet Clear Pink</t>
+  </si>
+  <si>
+    <t>60550619-60450378</t>
+  </si>
+  <si>
     <t>6.5</t>
   </si>
   <si>
-    <t>adidas Campus 00s Grey White</t>
-  </si>
-  <si>
-    <t>5.5</t>
+    <t>1Z3241WW9197569381</t>
+  </si>
+  <si>
+    <t>v8gMUrT</t>
+  </si>
+  <si>
+    <t>1Z39R6879131519951</t>
+  </si>
+  <si>
+    <t>1Z39R6879137359926</t>
+  </si>
+  <si>
+    <t>8.5W</t>
+  </si>
+  <si>
+    <t>1Z842FX49169332885</t>
+  </si>
+  <si>
+    <t>60631389-60531148</t>
+  </si>
+  <si>
+    <t>60676193-60575952</t>
+  </si>
+  <si>
+    <t>Nike Mac Attack QS SP Travis Scott Cactus Jack</t>
   </si>
   <si>
     <t>9.5</t>
   </si>
   <si>
-    <t>stockxnl</t>
-  </si>
-  <si>
-    <t>Nike SB Dunk Low Adobe</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>adidas Campus 00s Core Black</t>
-  </si>
-  <si>
-    <t>Nike SB Dunk Low Orange Emerald Rise</t>
-  </si>
-  <si>
-    <t>8.5</t>
-  </si>
-  <si>
-    <t>adidas Samba Vegan Black Gum</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>54696281-54596040</t>
-  </si>
-  <si>
-    <t>1Z842FX49162090873</t>
-  </si>
-  <si>
-    <t>Nike Dunk Low White Grey Navy Aqua Mini Swoosh</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>54716422-54616181</t>
-  </si>
-  <si>
-    <t>54744063-54643822</t>
-  </si>
-  <si>
-    <t>adidas Gazelle Bold Pink Glow (Women's)</t>
-  </si>
-  <si>
-    <t>8.5W</t>
-  </si>
-  <si>
-    <t>54765048-54664807</t>
-  </si>
-  <si>
-    <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>1Z842FX49162181220</t>
-  </si>
-  <si>
-    <t>54792372-54692131</t>
-  </si>
-  <si>
-    <t>adidas Yeezy Slide Slate Grey</t>
-  </si>
-  <si>
-    <t>54778747-54678506</t>
-  </si>
-  <si>
-    <t>54778139-54677898</t>
-  </si>
-  <si>
-    <t>adidas Samba ADV Black Gum</t>
-  </si>
-  <si>
-    <t>54791504-54691263</t>
-  </si>
-  <si>
-    <t>adidas Samba ADV Cardboard Black</t>
-  </si>
-  <si>
-    <t>10.5</t>
-  </si>
-  <si>
-    <t>54818711-54718470</t>
-  </si>
-  <si>
-    <t>54846686-54746445</t>
+    <t>60684047-60583806</t>
+  </si>
+  <si>
+    <t>sneakit</t>
+  </si>
+  <si>
+    <t>adidas Handball Spezial Clear Pink Arctic Night (Women's)</t>
+  </si>
+  <si>
+    <t>6.5W</t>
+  </si>
+  <si>
+    <t>1ZRF66299108977075</t>
+  </si>
+  <si>
+    <t>iyt6rjk</t>
+  </si>
+  <si>
+    <t>1Z39R6879127322466</t>
+  </si>
+  <si>
+    <t>adidas Handball Spezial Navy Gum</t>
+  </si>
+  <si>
+    <t>60113843-60013602</t>
   </si>
 </sst>
 </file>
@@ -487,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -529,347 +760,1543 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45165</v>
+        <v>45293</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>104.85</v>
+        <v>120.83</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>45166</v>
+        <v>45294</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>154.35</v>
+        <v>122.25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>1825088</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>45166</v>
+        <v>45294</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>106.65</v>
+        <v>119.83</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
         <v>21</v>
+      </c>
+      <c r="F4">
+        <v>522455561</v>
+      </c>
+      <c r="G4">
+        <v>5867376745</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>45166</v>
+        <v>45295</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>114.89</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5">
-        <v>553683034</v>
-      </c>
-      <c r="G5">
-        <v>1286102941</v>
+        <v>122.8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>45167</v>
+        <v>45299</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
       <c r="D6">
-        <v>104.85</v>
+        <v>121.72</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>45167</v>
+        <v>45299</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>130.81</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
         <v>29</v>
       </c>
-      <c r="D7">
-        <v>133.34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7">
-        <v>103302733</v>
-      </c>
-      <c r="G7">
-        <v>2107471505</v>
+      <c r="G7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>45167</v>
+        <v>45299</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>120.17</v>
+        <v>125.47</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8">
-        <v>628618158</v>
-      </c>
-      <c r="G8">
-        <v>8329466073</v>
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>45168</v>
+        <v>45299</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>116.99</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>80.78</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>45168</v>
+        <v>45299</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>70.19</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>79</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>45168</v>
+        <v>45299</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>75.59</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>79.19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>45168</v>
+        <v>45299</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>79.19</v>
+      </c>
+      <c r="E12" t="s">
         <v>36</v>
       </c>
-      <c r="D12">
-        <v>83.69</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>45168</v>
+        <v>45299</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13">
-        <v>98.19</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13">
-        <v>988583859</v>
-      </c>
-      <c r="G13">
-        <v>7461431541</v>
+        <v>85.42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>45169</v>
+        <v>45300</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>105.22</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14">
-        <v>509761240</v>
-      </c>
-      <c r="G14">
-        <v>2193945471</v>
+        <v>120.83</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>45169</v>
+        <v>45300</v>
       </c>
       <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
       <c r="D15">
-        <v>83.69</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>11</v>
+        <v>120.56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>45169</v>
+        <v>45300</v>
       </c>
       <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>125.01</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>45300</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>132.13</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>45300</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>109.26</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>45300</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>115</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>45301</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20">
+        <v>183.1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20">
+        <v>868124152</v>
+      </c>
+      <c r="G20">
+        <v>2317408380</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>45301</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>150.59</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21">
+        <v>612758926</v>
+      </c>
+      <c r="G21">
+        <v>2365276141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>45301</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22">
+        <v>107.52</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>892196231</v>
+      </c>
+      <c r="G22">
+        <v>1738486142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>45303</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>115</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>45305</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>111.92</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24">
+        <v>172426165</v>
+      </c>
+      <c r="G24">
+        <v>6728793492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>45306</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25">
+        <v>113.89</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>45306</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26">
+        <v>86.3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>45306</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27">
+        <v>125.1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27">
+        <v>409809302</v>
+      </c>
+      <c r="G27">
+        <v>1456910103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>45306</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28">
+        <v>211.22</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28">
+        <v>817422717</v>
+      </c>
+      <c r="G28">
+        <v>7010607284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>45307</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29">
+        <v>120.71</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29">
+        <v>344817544</v>
+      </c>
+      <c r="G29">
+        <v>6962593665</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>45307</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30">
+        <v>120.71</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30">
+        <v>832309565</v>
+      </c>
+      <c r="G30">
+        <v>8339309381</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>45307</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>111.04</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31">
+        <v>266280016</v>
+      </c>
+      <c r="G31">
+        <v>1142014193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>45307</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32">
+        <v>126.35</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>45308</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33">
+        <v>120.71</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33">
+        <v>110135012</v>
+      </c>
+      <c r="G33">
+        <v>2104145842</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>45310</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34">
+        <v>95.57</v>
+      </c>
+      <c r="E34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>45310</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35">
+        <v>110.7</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>45311</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36">
+        <v>103.95</v>
+      </c>
+      <c r="E36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36">
+        <v>1864467</v>
+      </c>
+      <c r="G36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>45311</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>105.29</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="D37">
+        <v>114.26</v>
+      </c>
+      <c r="E37" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>45311</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38">
+        <v>155.19999999999999</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>45311</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39">
+        <v>94.68</v>
+      </c>
+      <c r="E39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>45311</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40">
+        <v>94.68</v>
+      </c>
+      <c r="E40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>45311</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41">
+        <v>95.57</v>
+      </c>
+      <c r="E41" t="s">
         <v>41</v>
       </c>
-      <c r="G16" t="s">
-        <v>31</v>
+      <c r="F41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>45311</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42">
+        <v>110.7</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>45312</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43">
+        <v>95.57</v>
+      </c>
+      <c r="E43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>45312</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44">
+        <v>95.57</v>
+      </c>
+      <c r="E44" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s">
+        <v>80</v>
+      </c>
+      <c r="G44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>45313</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45">
+        <v>140.04</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45">
+        <v>709123275</v>
+      </c>
+      <c r="G45">
+        <v>1344367312</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45313</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46">
+        <v>103.95</v>
+      </c>
+      <c r="E46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46">
+        <v>1864470</v>
+      </c>
+      <c r="G46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>45313</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47">
+        <v>103.95</v>
+      </c>
+      <c r="E47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47">
+        <v>1864469</v>
+      </c>
+      <c r="G47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>45313</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48">
+        <v>112.19</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48">
+        <v>1864600</v>
+      </c>
+      <c r="G48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>45313</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>127.07</v>
+      </c>
+      <c r="E49" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" t="s">
+        <v>86</v>
+      </c>
+      <c r="G49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>45313</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50">
+        <v>87.91</v>
+      </c>
+      <c r="E50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" t="s">
+        <v>87</v>
+      </c>
+      <c r="G50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>45313</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51">
+        <v>87.91</v>
+      </c>
+      <c r="E51" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" t="s">
+        <v>88</v>
+      </c>
+      <c r="G51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>45313</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52">
+        <v>91.67</v>
+      </c>
+      <c r="E52" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" t="s">
+        <v>92</v>
+      </c>
+      <c r="G52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>45313</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53">
+        <v>91.67</v>
+      </c>
+      <c r="E53" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>45314</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54">
+        <v>102.12</v>
+      </c>
+      <c r="E54" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54">
+        <v>1868931</v>
+      </c>
+      <c r="G54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>45314</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55">
+        <v>93.25</v>
+      </c>
+      <c r="E55" t="s">
+        <v>95</v>
+      </c>
+      <c r="F55" t="s">
+        <v>96</v>
+      </c>
+      <c r="G55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>45314</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56">
+        <v>116.39</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>98</v>
+      </c>
+      <c r="G56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>45314</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57">
+        <v>104.17</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F57" t="s">
+        <v>101</v>
+      </c>
+      <c r="G57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>45315</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58">
+        <v>103.04</v>
+      </c>
+      <c r="E58" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58">
+        <v>1869681</v>
+      </c>
+      <c r="G58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>45316</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59">
+        <v>102.12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>95</v>
+      </c>
+      <c r="F59">
+        <v>1875788</v>
+      </c>
+      <c r="G59" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>45316</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60">
+        <v>115.68</v>
+      </c>
+      <c r="E60" t="s">
+        <v>104</v>
+      </c>
+      <c r="F60" t="s">
+        <v>106</v>
+      </c>
+      <c r="G60" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>45317</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61">
+        <v>121.91</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" t="s">
+        <v>107</v>
+      </c>
+      <c r="G61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>45318</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62">
+        <v>201.12</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F62" t="s">
+        <v>110</v>
+      </c>
+      <c r="G62" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>45319</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63">
+        <v>115.44</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63">
+        <v>473936514</v>
+      </c>
+      <c r="G63">
+        <v>2148955756</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>45319</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64">
+        <v>115.44</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64">
+        <v>598424409</v>
+      </c>
+      <c r="G64">
+        <v>6870225865</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>45319</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65">
+        <v>115.44</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65">
+        <v>646361969</v>
+      </c>
+      <c r="G65">
+        <v>3579707003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>45319</v>
+      </c>
+      <c r="B66" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66">
+        <v>99.04</v>
+      </c>
+      <c r="E66" t="s">
+        <v>113</v>
+      </c>
+      <c r="F66" t="s">
+        <v>115</v>
+      </c>
+      <c r="G66" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>45321</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67">
+        <v>119.51</v>
+      </c>
+      <c r="E67" t="s">
+        <v>104</v>
+      </c>
+      <c r="F67">
+        <v>1887506</v>
+      </c>
+      <c r="G67" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68">
+        <v>108.41</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68">
+        <v>382672460</v>
+      </c>
+      <c r="G68">
+        <v>3895648724</v>
       </c>
     </row>
   </sheetData>
